--- a/Working Area.xlsx
+++ b/Working Area.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7548CD7E-CD69-4C1F-A52D-98DC54A4CC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A405B58-7A21-43F9-9356-1435300D21DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{59969C4D-6370-4C6D-B336-0A16B9933AEB}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{59969C4D-6370-4C6D-B336-0A16B9933AEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -111,7 +119,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\ &quot;mm&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +175,14 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -269,7 +285,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -306,6 +322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Good" xfId="3" builtinId="26"/>
@@ -639,7 +656,7 @@
   <dimension ref="A1:AA40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,99 +864,99 @@
         <v>1</v>
       </c>
       <c r="D9" s="7">
-        <f>D8-40-SideOffset</f>
+        <f t="shared" ref="D9:AA9" si="0">D8-40-SideOffset</f>
         <v>60</v>
       </c>
       <c r="E9" s="7">
-        <f>E8-40-SideOffset</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="F9" s="7">
-        <f>F8-40-SideOffset</f>
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
       <c r="G9" s="7">
-        <f>G8-40-SideOffset</f>
+        <f t="shared" si="0"/>
         <v>210</v>
       </c>
       <c r="H9" s="7">
-        <f>H8-40-SideOffset</f>
+        <f t="shared" si="0"/>
         <v>260</v>
       </c>
       <c r="I9" s="7">
-        <f>I8-40-SideOffset</f>
+        <f t="shared" si="0"/>
         <v>310</v>
       </c>
       <c r="J9" s="7">
-        <f>J8-40-SideOffset</f>
+        <f t="shared" si="0"/>
         <v>360</v>
       </c>
       <c r="K9" s="7">
-        <f>K8-40-SideOffset</f>
+        <f t="shared" si="0"/>
         <v>410</v>
       </c>
       <c r="L9" s="7">
-        <f>L8-40-SideOffset</f>
+        <f t="shared" si="0"/>
         <v>460</v>
       </c>
       <c r="M9" s="7">
-        <f>M8-40-SideOffset</f>
+        <f t="shared" si="0"/>
         <v>510</v>
       </c>
       <c r="N9" s="7">
-        <f>N8-40-SideOffset</f>
+        <f t="shared" si="0"/>
         <v>560</v>
       </c>
       <c r="O9" s="7">
-        <f>O8-40-SideOffset</f>
+        <f t="shared" si="0"/>
         <v>610</v>
       </c>
       <c r="P9" s="7">
-        <f>P8-40-SideOffset</f>
+        <f t="shared" si="0"/>
         <v>660</v>
       </c>
       <c r="Q9" s="7">
-        <f>Q8-40-SideOffset</f>
+        <f t="shared" si="0"/>
         <v>710</v>
       </c>
       <c r="R9" s="7">
-        <f>R8-40-SideOffset</f>
+        <f t="shared" si="0"/>
         <v>760</v>
       </c>
       <c r="S9" s="7">
-        <f>S8-40-SideOffset</f>
+        <f t="shared" si="0"/>
         <v>810</v>
       </c>
       <c r="T9" s="7">
-        <f>T8-40-SideOffset</f>
+        <f t="shared" si="0"/>
         <v>860</v>
       </c>
       <c r="U9" s="7">
-        <f>U8-40-SideOffset</f>
+        <f t="shared" si="0"/>
         <v>910</v>
       </c>
       <c r="V9" s="7">
-        <f>V8-40-SideOffset</f>
+        <f t="shared" si="0"/>
         <v>960</v>
       </c>
       <c r="W9" s="7">
-        <f>W8-40-SideOffset</f>
+        <f t="shared" si="0"/>
         <v>1010</v>
       </c>
       <c r="X9" s="7">
-        <f>X8-40-SideOffset</f>
+        <f t="shared" si="0"/>
         <v>1060</v>
       </c>
       <c r="Y9" s="7">
-        <f>Y8-40-SideOffset</f>
+        <f t="shared" si="0"/>
         <v>1110</v>
       </c>
       <c r="Z9" s="7">
-        <f>Z8-40-SideOffset</f>
+        <f t="shared" si="0"/>
         <v>1160</v>
       </c>
       <c r="AA9" s="7">
-        <f>AA8-40-SideOffset</f>
+        <f t="shared" si="0"/>
         <v>1210</v>
       </c>
     </row>
@@ -955,99 +972,99 @@
         <v>110</v>
       </c>
       <c r="D10" s="7" t="str">
-        <f>(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C10-(90+20+20))</f>
+        <f t="shared" ref="D10:M19" si="1">(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C10-(90+20+20))</f>
         <v>-76 by -20</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>(E$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C10-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>-26 by -20</v>
       </c>
       <c r="F10" s="7" t="str">
-        <f>(F$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C10-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>24 by -20</v>
       </c>
       <c r="G10" s="7" t="str">
-        <f>(G$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C10-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>74 by -20</v>
       </c>
       <c r="H10" s="7" t="str">
-        <f>(H$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C10-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>124 by -20</v>
       </c>
       <c r="I10" s="7" t="str">
-        <f>(I$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C10-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>174 by -20</v>
       </c>
       <c r="J10" s="7" t="str">
-        <f>(J$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C10-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>224 by -20</v>
       </c>
       <c r="K10" s="7" t="str">
-        <f>(K$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C10-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>274 by -20</v>
       </c>
       <c r="L10" s="7" t="str">
-        <f>(L$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C10-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>324 by -20</v>
       </c>
       <c r="M10" s="7" t="str">
-        <f>(M$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C10-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>374 by -20</v>
       </c>
       <c r="N10" s="7" t="str">
-        <f>(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C10-(90+20+20))</f>
+        <f t="shared" ref="N10:AA19" si="2">(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C10-(90+20+20))</f>
         <v>424 by -20</v>
       </c>
       <c r="O10" s="7" t="str">
-        <f>(O$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C10-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>474 by -20</v>
       </c>
       <c r="P10" s="7" t="str">
-        <f>(P$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C10-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>524 by -20</v>
       </c>
       <c r="Q10" s="7" t="str">
-        <f>(Q$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C10-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>574 by -20</v>
       </c>
       <c r="R10" s="7" t="str">
-        <f>(R$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C10-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>624 by -20</v>
       </c>
       <c r="S10" s="7" t="str">
-        <f>(S$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C10-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>674 by -20</v>
       </c>
       <c r="T10" s="7" t="str">
-        <f>(T$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C10-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>724 by -20</v>
       </c>
       <c r="U10" s="7" t="str">
-        <f>(U$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C10-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>774 by -20</v>
       </c>
       <c r="V10" s="7" t="str">
-        <f>(V$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C10-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>824 by -20</v>
       </c>
       <c r="W10" s="7" t="str">
-        <f>(W$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C10-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>874 by -20</v>
       </c>
       <c r="X10" s="7" t="str">
-        <f>(X$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C10-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>924 by -20</v>
       </c>
       <c r="Y10" s="7" t="str">
-        <f>(Y$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C10-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>974 by -20</v>
       </c>
       <c r="Z10" s="7" t="str">
-        <f>(Z$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C10-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>1024 by -20</v>
       </c>
       <c r="AA10" s="7" t="str">
-        <f>(AA$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C10-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>1074 by -20</v>
       </c>
     </row>
@@ -1057,103 +1074,103 @@
         <v>150</v>
       </c>
       <c r="C11" s="7">
-        <f t="shared" ref="C11:C39" si="0">B11+10</f>
+        <f t="shared" ref="C11:C39" si="3">B11+10</f>
         <v>160</v>
       </c>
       <c r="D11" s="7" t="str">
-        <f>(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C11-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>-76 by 30</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>(E$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C11-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>-26 by 30</v>
       </c>
       <c r="F11" s="9" t="str">
-        <f>(F$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C11-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>24 by 30</v>
       </c>
       <c r="G11" s="9" t="str">
-        <f>(G$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C11-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>74 by 30</v>
       </c>
       <c r="H11" s="9" t="str">
-        <f>(H$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C11-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>124 by 30</v>
       </c>
       <c r="I11" s="8" t="str">
-        <f>(I$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C11-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>174 by 30</v>
       </c>
       <c r="J11" s="8" t="str">
-        <f>(J$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C11-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>224 by 30</v>
       </c>
       <c r="K11" s="8" t="str">
-        <f>(K$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C11-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>274 by 30</v>
       </c>
       <c r="L11" s="8" t="str">
-        <f>(L$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C11-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>324 by 30</v>
       </c>
       <c r="M11" s="8" t="str">
-        <f>(M$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C11-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>374 by 30</v>
       </c>
       <c r="N11" s="8" t="str">
-        <f>(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C11-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>424 by 30</v>
       </c>
       <c r="O11" s="8" t="str">
-        <f>(O$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C11-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>474 by 30</v>
       </c>
       <c r="P11" s="8" t="str">
-        <f>(P$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C11-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>524 by 30</v>
       </c>
       <c r="Q11" s="8" t="str">
-        <f>(Q$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C11-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>574 by 30</v>
       </c>
       <c r="R11" s="8" t="str">
-        <f>(R$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C11-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>624 by 30</v>
       </c>
       <c r="S11" s="8" t="str">
-        <f>(S$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C11-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>674 by 30</v>
       </c>
       <c r="T11" s="8" t="str">
-        <f>(T$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C11-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>724 by 30</v>
       </c>
       <c r="U11" s="8" t="str">
-        <f>(U$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C11-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>774 by 30</v>
       </c>
       <c r="V11" s="8" t="str">
-        <f>(V$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C11-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>824 by 30</v>
       </c>
       <c r="W11" s="8" t="str">
-        <f>(W$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C11-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>874 by 30</v>
       </c>
       <c r="X11" s="8" t="str">
-        <f>(X$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C11-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>924 by 30</v>
       </c>
       <c r="Y11" s="8" t="str">
-        <f>(Y$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C11-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>974 by 30</v>
       </c>
       <c r="Z11" s="8" t="str">
-        <f>(Z$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C11-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>1024 by 30</v>
       </c>
       <c r="AA11" s="8" t="str">
-        <f>(AA$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C11-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>1074 by 30</v>
       </c>
     </row>
@@ -1163,103 +1180,103 @@
         <v>200</v>
       </c>
       <c r="C12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="D12" s="7" t="str">
-        <f>(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C12-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>-76 by 80</v>
       </c>
       <c r="E12" s="7" t="str">
-        <f>(E$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C12-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>-26 by 80</v>
       </c>
       <c r="F12" s="9" t="str">
-        <f>(F$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C12-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>24 by 80</v>
       </c>
       <c r="G12" s="9" t="str">
-        <f>(G$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C12-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>74 by 80</v>
       </c>
       <c r="H12" s="9" t="str">
-        <f>(H$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C12-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>124 by 80</v>
       </c>
       <c r="I12" s="8" t="str">
-        <f>(I$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C12-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>174 by 80</v>
       </c>
       <c r="J12" s="8" t="str">
-        <f>(J$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C12-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>224 by 80</v>
       </c>
       <c r="K12" s="8" t="str">
-        <f>(K$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C12-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>274 by 80</v>
       </c>
       <c r="L12" s="8" t="str">
-        <f>(L$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C12-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>324 by 80</v>
       </c>
       <c r="M12" s="8" t="str">
-        <f>(M$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C12-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>374 by 80</v>
       </c>
       <c r="N12" s="8" t="str">
-        <f>(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C12-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>424 by 80</v>
       </c>
       <c r="O12" s="8" t="str">
-        <f>(O$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C12-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>474 by 80</v>
       </c>
       <c r="P12" s="8" t="str">
-        <f>(P$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C12-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>524 by 80</v>
       </c>
       <c r="Q12" s="8" t="str">
-        <f>(Q$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C12-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>574 by 80</v>
       </c>
       <c r="R12" s="8" t="str">
-        <f>(R$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C12-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>624 by 80</v>
       </c>
       <c r="S12" s="8" t="str">
-        <f>(S$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C12-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>674 by 80</v>
       </c>
       <c r="T12" s="8" t="str">
-        <f>(T$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C12-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>724 by 80</v>
       </c>
       <c r="U12" s="8" t="str">
-        <f>(U$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C12-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>774 by 80</v>
       </c>
       <c r="V12" s="8" t="str">
-        <f>(V$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C12-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>824 by 80</v>
       </c>
       <c r="W12" s="8" t="str">
-        <f>(W$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C12-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>874 by 80</v>
       </c>
       <c r="X12" s="8" t="str">
-        <f>(X$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C12-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>924 by 80</v>
       </c>
       <c r="Y12" s="8" t="str">
-        <f>(Y$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C12-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>974 by 80</v>
       </c>
       <c r="Z12" s="8" t="str">
-        <f>(Z$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C12-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>1024 by 80</v>
       </c>
       <c r="AA12" s="8" t="str">
-        <f>(AA$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C12-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>1074 by 80</v>
       </c>
     </row>
@@ -1269,103 +1286,103 @@
         <v>250</v>
       </c>
       <c r="C13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="D13" s="7" t="str">
-        <f>(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C13-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>-76 by 130</v>
       </c>
       <c r="E13" s="7" t="str">
-        <f>(E$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C13-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>-26 by 130</v>
       </c>
       <c r="F13" s="9" t="str">
-        <f>(F$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C13-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>24 by 130</v>
       </c>
       <c r="G13" s="9" t="str">
-        <f>(G$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C13-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>74 by 130</v>
       </c>
       <c r="H13" s="9" t="str">
-        <f>(H$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C13-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>124 by 130</v>
       </c>
       <c r="I13" s="8" t="str">
-        <f>(I$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C13-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>174 by 130</v>
       </c>
       <c r="J13" s="8" t="str">
-        <f>(J$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C13-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>224 by 130</v>
       </c>
       <c r="K13" s="8" t="str">
-        <f>(K$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C13-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>274 by 130</v>
       </c>
       <c r="L13" s="8" t="str">
-        <f>(L$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C13-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>324 by 130</v>
       </c>
       <c r="M13" s="8" t="str">
-        <f>(M$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C13-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>374 by 130</v>
       </c>
       <c r="N13" s="8" t="str">
-        <f>(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C13-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>424 by 130</v>
       </c>
       <c r="O13" s="8" t="str">
-        <f>(O$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C13-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>474 by 130</v>
       </c>
       <c r="P13" s="8" t="str">
-        <f>(P$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C13-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>524 by 130</v>
       </c>
       <c r="Q13" s="8" t="str">
-        <f>(Q$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C13-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>574 by 130</v>
       </c>
       <c r="R13" s="8" t="str">
-        <f>(R$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C13-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>624 by 130</v>
       </c>
       <c r="S13" s="8" t="str">
-        <f>(S$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C13-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>674 by 130</v>
       </c>
       <c r="T13" s="8" t="str">
-        <f>(T$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C13-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>724 by 130</v>
       </c>
       <c r="U13" s="8" t="str">
-        <f>(U$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C13-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>774 by 130</v>
       </c>
       <c r="V13" s="8" t="str">
-        <f>(V$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C13-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>824 by 130</v>
       </c>
       <c r="W13" s="8" t="str">
-        <f>(W$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C13-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>874 by 130</v>
       </c>
       <c r="X13" s="8" t="str">
-        <f>(X$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C13-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>924 by 130</v>
       </c>
       <c r="Y13" s="8" t="str">
-        <f>(Y$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C13-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>974 by 130</v>
       </c>
       <c r="Z13" s="8" t="str">
-        <f>(Z$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C13-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>1024 by 130</v>
       </c>
       <c r="AA13" s="8" t="str">
-        <f>(AA$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C13-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>1074 by 130</v>
       </c>
     </row>
@@ -1375,103 +1392,103 @@
         <v>300</v>
       </c>
       <c r="C14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>310</v>
       </c>
       <c r="D14" s="7" t="str">
-        <f>(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C14-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>-76 by 180</v>
       </c>
       <c r="E14" s="7" t="str">
-        <f>(E$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C14-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>-26 by 180</v>
       </c>
       <c r="F14" s="9" t="str">
-        <f>(F$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C14-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>24 by 180</v>
       </c>
       <c r="G14" s="9" t="str">
-        <f>(G$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C14-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>74 by 180</v>
       </c>
       <c r="H14" s="9" t="str">
-        <f>(H$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C14-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>124 by 180</v>
       </c>
       <c r="I14" s="8" t="str">
-        <f>(I$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C14-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>174 by 180</v>
       </c>
       <c r="J14" s="8" t="str">
-        <f>(J$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C14-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>224 by 180</v>
       </c>
       <c r="K14" s="8" t="str">
-        <f>(K$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C14-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>274 by 180</v>
       </c>
       <c r="L14" s="8" t="str">
-        <f>(L$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C14-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>324 by 180</v>
       </c>
       <c r="M14" s="8" t="str">
-        <f>(M$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C14-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>374 by 180</v>
       </c>
       <c r="N14" s="8" t="str">
-        <f>(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C14-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>424 by 180</v>
       </c>
       <c r="O14" s="8" t="str">
-        <f>(O$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C14-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>474 by 180</v>
       </c>
       <c r="P14" s="8" t="str">
-        <f>(P$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C14-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>524 by 180</v>
       </c>
       <c r="Q14" s="8" t="str">
-        <f>(Q$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C14-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>574 by 180</v>
       </c>
       <c r="R14" s="8" t="str">
-        <f>(R$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C14-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>624 by 180</v>
       </c>
       <c r="S14" s="8" t="str">
-        <f>(S$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C14-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>674 by 180</v>
       </c>
       <c r="T14" s="8" t="str">
-        <f>(T$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C14-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>724 by 180</v>
       </c>
       <c r="U14" s="8" t="str">
-        <f>(U$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C14-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>774 by 180</v>
       </c>
       <c r="V14" s="8" t="str">
-        <f>(V$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C14-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>824 by 180</v>
       </c>
       <c r="W14" s="8" t="str">
-        <f>(W$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C14-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>874 by 180</v>
       </c>
       <c r="X14" s="8" t="str">
-        <f>(X$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C14-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>924 by 180</v>
       </c>
       <c r="Y14" s="8" t="str">
-        <f>(Y$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C14-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>974 by 180</v>
       </c>
       <c r="Z14" s="8" t="str">
-        <f>(Z$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C14-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>1024 by 180</v>
       </c>
       <c r="AA14" s="8" t="str">
-        <f>(AA$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C14-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>1074 by 180</v>
       </c>
     </row>
@@ -1481,209 +1498,209 @@
         <v>350</v>
       </c>
       <c r="C15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>360</v>
       </c>
       <c r="D15" s="7" t="str">
-        <f>(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C15-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>-76 by 230</v>
       </c>
       <c r="E15" s="7" t="str">
-        <f>(E$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C15-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>-26 by 230</v>
       </c>
       <c r="F15" s="9" t="str">
-        <f>(F$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C15-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>24 by 230</v>
       </c>
       <c r="G15" s="9" t="str">
-        <f>(G$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C15-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>74 by 230</v>
       </c>
       <c r="H15" s="9" t="str">
-        <f>(H$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C15-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>124 by 230</v>
       </c>
       <c r="I15" s="7" t="str">
-        <f>(I$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C15-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>174 by 230</v>
       </c>
       <c r="J15" s="7" t="str">
-        <f>(J$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C15-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>224 by 230</v>
       </c>
       <c r="K15" s="7" t="str">
-        <f>(K$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C15-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>274 by 230</v>
       </c>
       <c r="L15" s="7" t="str">
-        <f>(L$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C15-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>324 by 230</v>
       </c>
       <c r="M15" s="7" t="str">
-        <f>(M$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C15-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>374 by 230</v>
       </c>
       <c r="N15" s="7" t="str">
-        <f>(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C15-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>424 by 230</v>
       </c>
       <c r="O15" s="7" t="str">
-        <f>(O$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C15-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>474 by 230</v>
       </c>
       <c r="P15" s="7" t="str">
-        <f>(P$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C15-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>524 by 230</v>
       </c>
       <c r="Q15" s="7" t="str">
-        <f>(Q$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C15-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>574 by 230</v>
       </c>
       <c r="R15" s="7" t="str">
-        <f>(R$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C15-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>624 by 230</v>
       </c>
       <c r="S15" s="7" t="str">
-        <f>(S$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C15-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>674 by 230</v>
       </c>
       <c r="T15" s="7" t="str">
-        <f>(T$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C15-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>724 by 230</v>
       </c>
       <c r="U15" s="7" t="str">
-        <f>(U$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C15-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>774 by 230</v>
       </c>
       <c r="V15" s="7" t="str">
-        <f>(V$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C15-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>824 by 230</v>
       </c>
       <c r="W15" s="7" t="str">
-        <f>(W$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C15-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>874 by 230</v>
       </c>
       <c r="X15" s="7" t="str">
-        <f>(X$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C15-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>924 by 230</v>
       </c>
       <c r="Y15" s="7" t="str">
-        <f>(Y$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C15-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>974 by 230</v>
       </c>
       <c r="Z15" s="9" t="str">
-        <f>(Z$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C15-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>1024 by 230</v>
       </c>
       <c r="AA15" s="9" t="str">
-        <f>(AA$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C15-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>1074 by 230</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="8">
         <v>400</v>
       </c>
       <c r="C16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>410</v>
       </c>
       <c r="D16" s="7" t="str">
-        <f>(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C16-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>-76 by 280</v>
       </c>
       <c r="E16" s="7" t="str">
-        <f>(E$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C16-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>-26 by 280</v>
       </c>
       <c r="F16" s="9" t="str">
-        <f>(F$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C16-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>24 by 280</v>
       </c>
       <c r="G16" s="9" t="str">
-        <f>(G$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C16-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>74 by 280</v>
       </c>
       <c r="H16" s="9" t="str">
-        <f>(H$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C16-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>124 by 280</v>
       </c>
       <c r="I16" s="7" t="str">
-        <f>(I$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C16-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>174 by 280</v>
       </c>
-      <c r="J16" s="7" t="str">
-        <f>(J$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C16-(90+20+20))</f>
+      <c r="J16" s="16" t="str">
+        <f t="shared" si="1"/>
         <v>224 by 280</v>
       </c>
       <c r="K16" s="7" t="str">
-        <f>(K$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C16-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>274 by 280</v>
       </c>
       <c r="L16" s="7" t="str">
-        <f>(L$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C16-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>324 by 280</v>
       </c>
       <c r="M16" s="7" t="str">
-        <f>(M$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C16-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>374 by 280</v>
       </c>
       <c r="N16" s="7" t="str">
-        <f>(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C16-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>424 by 280</v>
       </c>
       <c r="O16" s="7" t="str">
-        <f>(O$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C16-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>474 by 280</v>
       </c>
       <c r="P16" s="7" t="str">
-        <f>(P$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C16-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>524 by 280</v>
       </c>
       <c r="Q16" s="7" t="str">
-        <f>(Q$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C16-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>574 by 280</v>
       </c>
       <c r="R16" s="7" t="str">
-        <f>(R$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C16-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>624 by 280</v>
       </c>
       <c r="S16" s="7" t="str">
-        <f>(S$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C16-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>674 by 280</v>
       </c>
       <c r="T16" s="7" t="str">
-        <f>(T$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C16-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>724 by 280</v>
       </c>
       <c r="U16" s="7" t="str">
-        <f>(U$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C16-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>774 by 280</v>
       </c>
       <c r="V16" s="7" t="str">
-        <f>(V$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C16-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>824 by 280</v>
       </c>
       <c r="W16" s="7" t="str">
-        <f>(W$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C16-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>874 by 280</v>
       </c>
       <c r="X16" s="7" t="str">
-        <f>(X$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C16-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>924 by 280</v>
       </c>
       <c r="Y16" s="7" t="str">
-        <f>(Y$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C16-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>974 by 280</v>
       </c>
       <c r="Z16" s="9" t="str">
-        <f>(Z$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C16-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>1024 by 280</v>
       </c>
       <c r="AA16" s="9" t="str">
-        <f>(AA$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C16-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>1074 by 280</v>
       </c>
     </row>
@@ -1693,103 +1710,103 @@
         <v>450</v>
       </c>
       <c r="C17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>460</v>
       </c>
       <c r="D17" s="7" t="str">
-        <f>(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C17-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>-76 by 330</v>
       </c>
       <c r="E17" s="7" t="str">
-        <f>(E$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C17-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>-26 by 330</v>
       </c>
       <c r="F17" s="9" t="str">
-        <f>(F$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C17-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>24 by 330</v>
       </c>
       <c r="G17" s="9" t="str">
-        <f>(G$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C17-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>74 by 330</v>
       </c>
       <c r="H17" s="9" t="str">
-        <f>(H$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C17-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>124 by 330</v>
       </c>
       <c r="I17" s="7" t="str">
-        <f>(I$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C17-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>174 by 330</v>
       </c>
       <c r="J17" s="7" t="str">
-        <f>(J$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C17-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>224 by 330</v>
       </c>
       <c r="K17" s="7" t="str">
-        <f>(K$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C17-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>274 by 330</v>
       </c>
       <c r="L17" s="7" t="str">
-        <f>(L$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C17-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>324 by 330</v>
       </c>
       <c r="M17" s="7" t="str">
-        <f>(M$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C17-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>374 by 330</v>
       </c>
       <c r="N17" s="7" t="str">
-        <f>(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C17-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>424 by 330</v>
       </c>
       <c r="O17" s="7" t="str">
-        <f>(O$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C17-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>474 by 330</v>
       </c>
       <c r="P17" s="7" t="str">
-        <f>(P$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C17-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>524 by 330</v>
       </c>
       <c r="Q17" s="7" t="str">
-        <f>(Q$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C17-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>574 by 330</v>
       </c>
       <c r="R17" s="7" t="str">
-        <f>(R$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C17-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>624 by 330</v>
       </c>
       <c r="S17" s="7" t="str">
-        <f>(S$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C17-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>674 by 330</v>
       </c>
       <c r="T17" s="7" t="str">
-        <f>(T$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C17-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>724 by 330</v>
       </c>
       <c r="U17" s="7" t="str">
-        <f>(U$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C17-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>774 by 330</v>
       </c>
       <c r="V17" s="7" t="str">
-        <f>(V$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C17-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>824 by 330</v>
       </c>
       <c r="W17" s="7" t="str">
-        <f>(W$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C17-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>874 by 330</v>
       </c>
       <c r="X17" s="7" t="str">
-        <f>(X$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C17-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>924 by 330</v>
       </c>
       <c r="Y17" s="7" t="str">
-        <f>(Y$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C17-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>974 by 330</v>
       </c>
       <c r="Z17" s="9" t="str">
-        <f>(Z$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C17-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>1024 by 330</v>
       </c>
       <c r="AA17" s="9" t="str">
-        <f>(AA$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C17-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>1074 by 330</v>
       </c>
     </row>
@@ -1799,103 +1816,103 @@
         <v>500</v>
       </c>
       <c r="C18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>510</v>
       </c>
       <c r="D18" s="7" t="str">
-        <f>(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C18-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>-76 by 380</v>
       </c>
       <c r="E18" s="7" t="str">
-        <f>(E$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C18-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>-26 by 380</v>
       </c>
       <c r="F18" s="9" t="str">
-        <f>(F$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C18-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>24 by 380</v>
       </c>
       <c r="G18" s="9" t="str">
-        <f>(G$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C18-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>74 by 380</v>
       </c>
       <c r="H18" s="9" t="str">
-        <f>(H$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C18-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>124 by 380</v>
       </c>
       <c r="I18" s="7" t="str">
-        <f>(I$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C18-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>174 by 380</v>
       </c>
       <c r="J18" s="7" t="str">
-        <f>(J$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C18-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>224 by 380</v>
       </c>
       <c r="K18" s="7" t="str">
-        <f>(K$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C18-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>274 by 380</v>
       </c>
       <c r="L18" s="7" t="str">
-        <f>(L$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C18-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>324 by 380</v>
       </c>
       <c r="M18" s="7" t="str">
-        <f>(M$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C18-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>374 by 380</v>
       </c>
       <c r="N18" s="7" t="str">
-        <f>(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C18-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>424 by 380</v>
       </c>
       <c r="O18" s="7" t="str">
-        <f>(O$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C18-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>474 by 380</v>
       </c>
       <c r="P18" s="7" t="str">
-        <f>(P$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C18-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>524 by 380</v>
       </c>
       <c r="Q18" s="7" t="str">
-        <f>(Q$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C18-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>574 by 380</v>
       </c>
       <c r="R18" s="7" t="str">
-        <f>(R$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C18-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>624 by 380</v>
       </c>
       <c r="S18" s="7" t="str">
-        <f>(S$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C18-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>674 by 380</v>
       </c>
       <c r="T18" s="7" t="str">
-        <f>(T$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C18-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>724 by 380</v>
       </c>
       <c r="U18" s="7" t="str">
-        <f>(U$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C18-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>774 by 380</v>
       </c>
       <c r="V18" s="7" t="str">
-        <f>(V$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C18-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>824 by 380</v>
       </c>
       <c r="W18" s="7" t="str">
-        <f>(W$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C18-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>874 by 380</v>
       </c>
       <c r="X18" s="7" t="str">
-        <f>(X$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C18-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>924 by 380</v>
       </c>
       <c r="Y18" s="7" t="str">
-        <f>(Y$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C18-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>974 by 380</v>
       </c>
       <c r="Z18" s="9" t="str">
-        <f>(Z$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C18-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>1024 by 380</v>
       </c>
       <c r="AA18" s="9" t="str">
-        <f>(AA$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C18-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>1074 by 380</v>
       </c>
     </row>
@@ -1905,103 +1922,103 @@
         <v>550</v>
       </c>
       <c r="C19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>560</v>
       </c>
       <c r="D19" s="7" t="str">
-        <f>(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C19-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>-76 by 430</v>
       </c>
       <c r="E19" s="7" t="str">
-        <f>(E$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C19-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>-26 by 430</v>
       </c>
       <c r="F19" s="9" t="str">
-        <f>(F$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C19-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>24 by 430</v>
       </c>
       <c r="G19" s="9" t="str">
-        <f>(G$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C19-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>74 by 430</v>
       </c>
       <c r="H19" s="9" t="str">
-        <f>(H$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C19-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>124 by 430</v>
       </c>
       <c r="I19" s="7" t="str">
-        <f>(I$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C19-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>174 by 430</v>
       </c>
       <c r="J19" s="7" t="str">
-        <f>(J$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C19-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>224 by 430</v>
       </c>
       <c r="K19" s="7" t="str">
-        <f>(K$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C19-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>274 by 430</v>
       </c>
       <c r="L19" s="7" t="str">
-        <f>(L$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C19-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>324 by 430</v>
       </c>
       <c r="M19" s="7" t="str">
-        <f>(M$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C19-(90+20+20))</f>
+        <f t="shared" si="1"/>
         <v>374 by 430</v>
       </c>
       <c r="N19" s="7" t="str">
-        <f>(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C19-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>424 by 430</v>
       </c>
       <c r="O19" s="7" t="str">
-        <f>(O$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C19-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>474 by 430</v>
       </c>
       <c r="P19" s="7" t="str">
-        <f>(P$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C19-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>524 by 430</v>
       </c>
       <c r="Q19" s="7" t="str">
-        <f>(Q$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C19-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>574 by 430</v>
       </c>
       <c r="R19" s="7" t="str">
-        <f>(R$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C19-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>624 by 430</v>
       </c>
       <c r="S19" s="7" t="str">
-        <f>(S$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C19-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>674 by 430</v>
       </c>
       <c r="T19" s="7" t="str">
-        <f>(T$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C19-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>724 by 430</v>
       </c>
       <c r="U19" s="7" t="str">
-        <f>(U$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C19-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>774 by 430</v>
       </c>
       <c r="V19" s="7" t="str">
-        <f>(V$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C19-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>824 by 430</v>
       </c>
       <c r="W19" s="7" t="str">
-        <f>(W$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C19-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>874 by 430</v>
       </c>
       <c r="X19" s="7" t="str">
-        <f>(X$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C19-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>924 by 430</v>
       </c>
       <c r="Y19" s="7" t="str">
-        <f>(Y$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C19-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>974 by 430</v>
       </c>
       <c r="Z19" s="9" t="str">
-        <f>(Z$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C19-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>1024 by 430</v>
       </c>
       <c r="AA19" s="9" t="str">
-        <f>(AA$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C19-(90+20+20))</f>
+        <f t="shared" si="2"/>
         <v>1074 by 430</v>
       </c>
     </row>
@@ -2011,103 +2028,103 @@
         <v>600</v>
       </c>
       <c r="C20" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>610</v>
       </c>
       <c r="D20" s="7" t="str">
-        <f>(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C20-(90+20+20))</f>
+        <f t="shared" ref="D20:M29" si="4">(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C20-(90+20+20))</f>
         <v>-76 by 480</v>
       </c>
       <c r="E20" s="7" t="str">
-        <f>(E$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C20-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>-26 by 480</v>
       </c>
       <c r="F20" s="9" t="str">
-        <f>(F$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C20-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>24 by 480</v>
       </c>
       <c r="G20" s="9" t="str">
-        <f>(G$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C20-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>74 by 480</v>
       </c>
       <c r="H20" s="9" t="str">
-        <f>(H$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C20-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>124 by 480</v>
       </c>
       <c r="I20" s="7" t="str">
-        <f>(I$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C20-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>174 by 480</v>
       </c>
       <c r="J20" s="7" t="str">
-        <f>(J$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C20-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>224 by 480</v>
       </c>
       <c r="K20" s="7" t="str">
-        <f>(K$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C20-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>274 by 480</v>
       </c>
       <c r="L20" s="7" t="str">
-        <f>(L$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C20-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>324 by 480</v>
       </c>
       <c r="M20" s="7" t="str">
-        <f>(M$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C20-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>374 by 480</v>
       </c>
       <c r="N20" s="7" t="str">
-        <f>(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C20-(90+20+20))</f>
+        <f t="shared" ref="N20:AA29" si="5">(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C20-(90+20+20))</f>
         <v>424 by 480</v>
       </c>
       <c r="O20" s="7" t="str">
-        <f>(O$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C20-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>474 by 480</v>
       </c>
       <c r="P20" s="7" t="str">
-        <f>(P$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C20-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>524 by 480</v>
       </c>
       <c r="Q20" s="7" t="str">
-        <f>(Q$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C20-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>574 by 480</v>
       </c>
       <c r="R20" s="7" t="str">
-        <f>(R$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C20-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>624 by 480</v>
       </c>
       <c r="S20" s="7" t="str">
-        <f>(S$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C20-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>674 by 480</v>
       </c>
       <c r="T20" s="7" t="str">
-        <f>(T$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C20-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>724 by 480</v>
       </c>
       <c r="U20" s="7" t="str">
-        <f>(U$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C20-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>774 by 480</v>
       </c>
       <c r="V20" s="7" t="str">
-        <f>(V$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C20-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>824 by 480</v>
       </c>
       <c r="W20" s="7" t="str">
-        <f>(W$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C20-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>874 by 480</v>
       </c>
       <c r="X20" s="7" t="str">
-        <f>(X$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C20-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>924 by 480</v>
       </c>
       <c r="Y20" s="7" t="str">
-        <f>(Y$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C20-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>974 by 480</v>
       </c>
       <c r="Z20" s="9" t="str">
-        <f>(Z$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C20-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>1024 by 480</v>
       </c>
       <c r="AA20" s="9" t="str">
-        <f>(AA$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C20-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>1074 by 480</v>
       </c>
     </row>
@@ -2117,103 +2134,103 @@
         <v>650</v>
       </c>
       <c r="C21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>660</v>
       </c>
       <c r="D21" s="7" t="str">
-        <f>(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C21-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>-76 by 530</v>
       </c>
       <c r="E21" s="7" t="str">
-        <f>(E$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C21-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>-26 by 530</v>
       </c>
       <c r="F21" s="9" t="str">
-        <f>(F$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C21-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>24 by 530</v>
       </c>
       <c r="G21" s="9" t="str">
-        <f>(G$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C21-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>74 by 530</v>
       </c>
       <c r="H21" s="9" t="str">
-        <f>(H$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C21-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>124 by 530</v>
       </c>
       <c r="I21" s="7" t="str">
-        <f>(I$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C21-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>174 by 530</v>
       </c>
       <c r="J21" s="7" t="str">
-        <f>(J$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C21-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>224 by 530</v>
       </c>
       <c r="K21" s="7" t="str">
-        <f>(K$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C21-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>274 by 530</v>
       </c>
       <c r="L21" s="7" t="str">
-        <f>(L$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C21-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>324 by 530</v>
       </c>
       <c r="M21" s="7" t="str">
-        <f>(M$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C21-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>374 by 530</v>
       </c>
       <c r="N21" s="7" t="str">
-        <f>(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C21-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>424 by 530</v>
       </c>
       <c r="O21" s="7" t="str">
-        <f>(O$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C21-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>474 by 530</v>
       </c>
       <c r="P21" s="7" t="str">
-        <f>(P$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C21-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>524 by 530</v>
       </c>
       <c r="Q21" s="7" t="str">
-        <f>(Q$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C21-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>574 by 530</v>
       </c>
       <c r="R21" s="7" t="str">
-        <f>(R$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C21-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>624 by 530</v>
       </c>
       <c r="S21" s="7" t="str">
-        <f>(S$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C21-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>674 by 530</v>
       </c>
       <c r="T21" s="7" t="str">
-        <f>(T$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C21-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>724 by 530</v>
       </c>
       <c r="U21" s="7" t="str">
-        <f>(U$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C21-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>774 by 530</v>
       </c>
       <c r="V21" s="7" t="str">
-        <f>(V$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C21-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>824 by 530</v>
       </c>
       <c r="W21" s="7" t="str">
-        <f>(W$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C21-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>874 by 530</v>
       </c>
       <c r="X21" s="7" t="str">
-        <f>(X$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C21-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>924 by 530</v>
       </c>
       <c r="Y21" s="7" t="str">
-        <f>(Y$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C21-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>974 by 530</v>
       </c>
       <c r="Z21" s="9" t="str">
-        <f>(Z$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C21-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>1024 by 530</v>
       </c>
       <c r="AA21" s="9" t="str">
-        <f>(AA$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C21-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>1074 by 530</v>
       </c>
     </row>
@@ -2223,103 +2240,103 @@
         <v>700</v>
       </c>
       <c r="C22" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>710</v>
       </c>
       <c r="D22" s="7" t="str">
-        <f>(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C22-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>-76 by 580</v>
       </c>
       <c r="E22" s="7" t="str">
-        <f>(E$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C22-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>-26 by 580</v>
       </c>
       <c r="F22" s="9" t="str">
-        <f>(F$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C22-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>24 by 580</v>
       </c>
       <c r="G22" s="9" t="str">
-        <f>(G$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C22-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>74 by 580</v>
       </c>
       <c r="H22" s="9" t="str">
-        <f>(H$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C22-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>124 by 580</v>
       </c>
       <c r="I22" s="7" t="str">
-        <f>(I$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C22-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>174 by 580</v>
       </c>
       <c r="J22" s="7" t="str">
-        <f>(J$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C22-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>224 by 580</v>
       </c>
       <c r="K22" s="7" t="str">
-        <f>(K$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C22-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>274 by 580</v>
       </c>
       <c r="L22" s="7" t="str">
-        <f>(L$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C22-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>324 by 580</v>
       </c>
       <c r="M22" s="7" t="str">
-        <f>(M$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C22-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>374 by 580</v>
       </c>
       <c r="N22" s="7" t="str">
-        <f>(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C22-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>424 by 580</v>
       </c>
       <c r="O22" s="7" t="str">
-        <f>(O$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C22-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>474 by 580</v>
       </c>
       <c r="P22" s="7" t="str">
-        <f>(P$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C22-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>524 by 580</v>
       </c>
       <c r="Q22" s="7" t="str">
-        <f>(Q$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C22-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>574 by 580</v>
       </c>
       <c r="R22" s="7" t="str">
-        <f>(R$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C22-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>624 by 580</v>
       </c>
       <c r="S22" s="7" t="str">
-        <f>(S$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C22-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>674 by 580</v>
       </c>
       <c r="T22" s="7" t="str">
-        <f>(T$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C22-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>724 by 580</v>
       </c>
       <c r="U22" s="7" t="str">
-        <f>(U$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C22-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>774 by 580</v>
       </c>
       <c r="V22" s="7" t="str">
-        <f>(V$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C22-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>824 by 580</v>
       </c>
       <c r="W22" s="7" t="str">
-        <f>(W$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C22-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>874 by 580</v>
       </c>
       <c r="X22" s="7" t="str">
-        <f>(X$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C22-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>924 by 580</v>
       </c>
       <c r="Y22" s="7" t="str">
-        <f>(Y$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C22-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>974 by 580</v>
       </c>
       <c r="Z22" s="9" t="str">
-        <f>(Z$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C22-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>1024 by 580</v>
       </c>
       <c r="AA22" s="9" t="str">
-        <f>(AA$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C22-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>1074 by 580</v>
       </c>
     </row>
@@ -2329,103 +2346,103 @@
         <v>750</v>
       </c>
       <c r="C23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>760</v>
       </c>
       <c r="D23" s="7" t="str">
-        <f>(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C23-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>-76 by 630</v>
       </c>
       <c r="E23" s="7" t="str">
-        <f>(E$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C23-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>-26 by 630</v>
       </c>
       <c r="F23" s="9" t="str">
-        <f>(F$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C23-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>24 by 630</v>
       </c>
       <c r="G23" s="9" t="str">
-        <f>(G$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C23-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>74 by 630</v>
       </c>
       <c r="H23" s="9" t="str">
-        <f>(H$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C23-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>124 by 630</v>
       </c>
       <c r="I23" s="7" t="str">
-        <f>(I$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C23-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>174 by 630</v>
       </c>
       <c r="J23" s="7" t="str">
-        <f>(J$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C23-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>224 by 630</v>
       </c>
       <c r="K23" s="7" t="str">
-        <f>(K$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C23-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>274 by 630</v>
       </c>
       <c r="L23" s="7" t="str">
-        <f>(L$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C23-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>324 by 630</v>
       </c>
       <c r="M23" s="7" t="str">
-        <f>(M$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C23-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>374 by 630</v>
       </c>
       <c r="N23" s="7" t="str">
-        <f>(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C23-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>424 by 630</v>
       </c>
       <c r="O23" s="7" t="str">
-        <f>(O$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C23-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>474 by 630</v>
       </c>
       <c r="P23" s="7" t="str">
-        <f>(P$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C23-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>524 by 630</v>
       </c>
       <c r="Q23" s="7" t="str">
-        <f>(Q$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C23-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>574 by 630</v>
       </c>
       <c r="R23" s="7" t="str">
-        <f>(R$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C23-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>624 by 630</v>
       </c>
       <c r="S23" s="7" t="str">
-        <f>(S$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C23-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>674 by 630</v>
       </c>
       <c r="T23" s="7" t="str">
-        <f>(T$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C23-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>724 by 630</v>
       </c>
       <c r="U23" s="7" t="str">
-        <f>(U$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C23-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>774 by 630</v>
       </c>
       <c r="V23" s="7" t="str">
-        <f>(V$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C23-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>824 by 630</v>
       </c>
       <c r="W23" s="7" t="str">
-        <f>(W$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C23-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>874 by 630</v>
       </c>
       <c r="X23" s="7" t="str">
-        <f>(X$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C23-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>924 by 630</v>
       </c>
       <c r="Y23" s="7" t="str">
-        <f>(Y$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C23-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>974 by 630</v>
       </c>
       <c r="Z23" s="9" t="str">
-        <f>(Z$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C23-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>1024 by 630</v>
       </c>
       <c r="AA23" s="9" t="str">
-        <f>(AA$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C23-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>1074 by 630</v>
       </c>
     </row>
@@ -2435,103 +2452,103 @@
         <v>800</v>
       </c>
       <c r="C24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>810</v>
       </c>
       <c r="D24" s="7" t="str">
-        <f>(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C24-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>-76 by 680</v>
       </c>
       <c r="E24" s="7" t="str">
-        <f>(E$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C24-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>-26 by 680</v>
       </c>
       <c r="F24" s="9" t="str">
-        <f>(F$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C24-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>24 by 680</v>
       </c>
       <c r="G24" s="9" t="str">
-        <f>(G$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C24-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>74 by 680</v>
       </c>
       <c r="H24" s="9" t="str">
-        <f>(H$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C24-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>124 by 680</v>
       </c>
       <c r="I24" s="7" t="str">
-        <f>(I$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C24-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>174 by 680</v>
       </c>
       <c r="J24" s="7" t="str">
-        <f>(J$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C24-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>224 by 680</v>
       </c>
       <c r="K24" s="7" t="str">
-        <f>(K$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C24-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>274 by 680</v>
       </c>
       <c r="L24" s="7" t="str">
-        <f>(L$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C24-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>324 by 680</v>
       </c>
       <c r="M24" s="7" t="str">
-        <f>(M$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C24-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>374 by 680</v>
       </c>
       <c r="N24" s="7" t="str">
-        <f>(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C24-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>424 by 680</v>
       </c>
       <c r="O24" s="7" t="str">
-        <f>(O$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C24-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>474 by 680</v>
       </c>
       <c r="P24" s="7" t="str">
-        <f>(P$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C24-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>524 by 680</v>
       </c>
       <c r="Q24" s="7" t="str">
-        <f>(Q$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C24-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>574 by 680</v>
       </c>
       <c r="R24" s="7" t="str">
-        <f>(R$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C24-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>624 by 680</v>
       </c>
       <c r="S24" s="7" t="str">
-        <f>(S$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C24-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>674 by 680</v>
       </c>
       <c r="T24" s="7" t="str">
-        <f>(T$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C24-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>724 by 680</v>
       </c>
       <c r="U24" s="7" t="str">
-        <f>(U$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C24-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>774 by 680</v>
       </c>
       <c r="V24" s="7" t="str">
-        <f>(V$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C24-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>824 by 680</v>
       </c>
       <c r="W24" s="7" t="str">
-        <f>(W$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C24-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>874 by 680</v>
       </c>
       <c r="X24" s="7" t="str">
-        <f>(X$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C24-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>924 by 680</v>
       </c>
       <c r="Y24" s="7" t="str">
-        <f>(Y$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C24-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>974 by 680</v>
       </c>
       <c r="Z24" s="9" t="str">
-        <f>(Z$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C24-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>1024 by 680</v>
       </c>
       <c r="AA24" s="9" t="str">
-        <f>(AA$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C24-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>1074 by 680</v>
       </c>
     </row>
@@ -2541,103 +2558,103 @@
         <v>850</v>
       </c>
       <c r="C25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>860</v>
       </c>
       <c r="D25" s="7" t="str">
-        <f>(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C25-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>-76 by 730</v>
       </c>
       <c r="E25" s="7" t="str">
-        <f>(E$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C25-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>-26 by 730</v>
       </c>
       <c r="F25" s="9" t="str">
-        <f>(F$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C25-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>24 by 730</v>
       </c>
       <c r="G25" s="9" t="str">
-        <f>(G$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C25-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>74 by 730</v>
       </c>
       <c r="H25" s="9" t="str">
-        <f>(H$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C25-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>124 by 730</v>
       </c>
       <c r="I25" s="7" t="str">
-        <f>(I$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C25-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>174 by 730</v>
       </c>
       <c r="J25" s="7" t="str">
-        <f>(J$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C25-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>224 by 730</v>
       </c>
       <c r="K25" s="7" t="str">
-        <f>(K$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C25-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>274 by 730</v>
       </c>
       <c r="L25" s="7" t="str">
-        <f>(L$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C25-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>324 by 730</v>
       </c>
       <c r="M25" s="7" t="str">
-        <f>(M$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C25-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>374 by 730</v>
       </c>
       <c r="N25" s="7" t="str">
-        <f>(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C25-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>424 by 730</v>
       </c>
       <c r="O25" s="7" t="str">
-        <f>(O$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C25-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>474 by 730</v>
       </c>
       <c r="P25" s="7" t="str">
-        <f>(P$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C25-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>524 by 730</v>
       </c>
       <c r="Q25" s="7" t="str">
-        <f>(Q$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C25-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>574 by 730</v>
       </c>
       <c r="R25" s="7" t="str">
-        <f>(R$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C25-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>624 by 730</v>
       </c>
       <c r="S25" s="7" t="str">
-        <f>(S$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C25-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>674 by 730</v>
       </c>
       <c r="T25" s="7" t="str">
-        <f>(T$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C25-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>724 by 730</v>
       </c>
       <c r="U25" s="7" t="str">
-        <f>(U$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C25-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>774 by 730</v>
       </c>
       <c r="V25" s="7" t="str">
-        <f>(V$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C25-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>824 by 730</v>
       </c>
       <c r="W25" s="7" t="str">
-        <f>(W$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C25-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>874 by 730</v>
       </c>
       <c r="X25" s="7" t="str">
-        <f>(X$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C25-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>924 by 730</v>
       </c>
       <c r="Y25" s="7" t="str">
-        <f>(Y$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C25-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>974 by 730</v>
       </c>
       <c r="Z25" s="9" t="str">
-        <f>(Z$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C25-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>1024 by 730</v>
       </c>
       <c r="AA25" s="9" t="str">
-        <f>(AA$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C25-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>1074 by 730</v>
       </c>
     </row>
@@ -2647,103 +2664,103 @@
         <v>900</v>
       </c>
       <c r="C26" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>910</v>
       </c>
       <c r="D26" s="7" t="str">
-        <f>(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C26-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>-76 by 780</v>
       </c>
       <c r="E26" s="7" t="str">
-        <f>(E$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C26-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>-26 by 780</v>
       </c>
       <c r="F26" s="9" t="str">
-        <f>(F$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C26-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>24 by 780</v>
       </c>
       <c r="G26" s="9" t="str">
-        <f>(G$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C26-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>74 by 780</v>
       </c>
       <c r="H26" s="9" t="str">
-        <f>(H$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C26-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>124 by 780</v>
       </c>
       <c r="I26" s="7" t="str">
-        <f>(I$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C26-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>174 by 780</v>
       </c>
       <c r="J26" s="7" t="str">
-        <f>(J$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C26-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>224 by 780</v>
       </c>
       <c r="K26" s="7" t="str">
-        <f>(K$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C26-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>274 by 780</v>
       </c>
       <c r="L26" s="7" t="str">
-        <f>(L$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C26-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>324 by 780</v>
       </c>
       <c r="M26" s="7" t="str">
-        <f>(M$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C26-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>374 by 780</v>
       </c>
       <c r="N26" s="7" t="str">
-        <f>(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C26-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>424 by 780</v>
       </c>
       <c r="O26" s="7" t="str">
-        <f>(O$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C26-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>474 by 780</v>
       </c>
       <c r="P26" s="7" t="str">
-        <f>(P$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C26-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>524 by 780</v>
       </c>
       <c r="Q26" s="7" t="str">
-        <f>(Q$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C26-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>574 by 780</v>
       </c>
       <c r="R26" s="7" t="str">
-        <f>(R$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C26-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>624 by 780</v>
       </c>
       <c r="S26" s="7" t="str">
-        <f>(S$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C26-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>674 by 780</v>
       </c>
       <c r="T26" s="7" t="str">
-        <f>(T$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C26-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>724 by 780</v>
       </c>
       <c r="U26" s="7" t="str">
-        <f>(U$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C26-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>774 by 780</v>
       </c>
       <c r="V26" s="7" t="str">
-        <f>(V$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C26-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>824 by 780</v>
       </c>
       <c r="W26" s="7" t="str">
-        <f>(W$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C26-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>874 by 780</v>
       </c>
       <c r="X26" s="7" t="str">
-        <f>(X$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C26-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>924 by 780</v>
       </c>
       <c r="Y26" s="7" t="str">
-        <f>(Y$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C26-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>974 by 780</v>
       </c>
       <c r="Z26" s="9" t="str">
-        <f>(Z$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C26-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>1024 by 780</v>
       </c>
       <c r="AA26" s="9" t="str">
-        <f>(AA$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C26-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>1074 by 780</v>
       </c>
     </row>
@@ -2753,103 +2770,103 @@
         <v>950</v>
       </c>
       <c r="C27" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>960</v>
       </c>
       <c r="D27" s="7" t="str">
-        <f>(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C27-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>-76 by 830</v>
       </c>
       <c r="E27" s="7" t="str">
-        <f>(E$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C27-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>-26 by 830</v>
       </c>
       <c r="F27" s="9" t="str">
-        <f>(F$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C27-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>24 by 830</v>
       </c>
       <c r="G27" s="9" t="str">
-        <f>(G$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C27-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>74 by 830</v>
       </c>
       <c r="H27" s="9" t="str">
-        <f>(H$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C27-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>124 by 830</v>
       </c>
       <c r="I27" s="7" t="str">
-        <f>(I$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C27-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>174 by 830</v>
       </c>
       <c r="J27" s="7" t="str">
-        <f>(J$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C27-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>224 by 830</v>
       </c>
       <c r="K27" s="7" t="str">
-        <f>(K$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C27-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>274 by 830</v>
       </c>
       <c r="L27" s="7" t="str">
-        <f>(L$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C27-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>324 by 830</v>
       </c>
       <c r="M27" s="7" t="str">
-        <f>(M$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C27-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>374 by 830</v>
       </c>
       <c r="N27" s="7" t="str">
-        <f>(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C27-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>424 by 830</v>
       </c>
       <c r="O27" s="7" t="str">
-        <f>(O$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C27-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>474 by 830</v>
       </c>
       <c r="P27" s="7" t="str">
-        <f>(P$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C27-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>524 by 830</v>
       </c>
       <c r="Q27" s="7" t="str">
-        <f>(Q$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C27-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>574 by 830</v>
       </c>
       <c r="R27" s="7" t="str">
-        <f>(R$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C27-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>624 by 830</v>
       </c>
       <c r="S27" s="7" t="str">
-        <f>(S$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C27-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>674 by 830</v>
       </c>
       <c r="T27" s="7" t="str">
-        <f>(T$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C27-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>724 by 830</v>
       </c>
       <c r="U27" s="7" t="str">
-        <f>(U$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C27-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>774 by 830</v>
       </c>
       <c r="V27" s="7" t="str">
-        <f>(V$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C27-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>824 by 830</v>
       </c>
       <c r="W27" s="7" t="str">
-        <f>(W$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C27-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>874 by 830</v>
       </c>
       <c r="X27" s="7" t="str">
-        <f>(X$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C27-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>924 by 830</v>
       </c>
       <c r="Y27" s="7" t="str">
-        <f>(Y$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C27-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>974 by 830</v>
       </c>
       <c r="Z27" s="9" t="str">
-        <f>(Z$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C27-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>1024 by 830</v>
       </c>
       <c r="AA27" s="9" t="str">
-        <f>(AA$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C27-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>1074 by 830</v>
       </c>
     </row>
@@ -2859,103 +2876,103 @@
         <v>1000</v>
       </c>
       <c r="C28" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1010</v>
       </c>
       <c r="D28" s="7" t="str">
-        <f>(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C28-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>-76 by 880</v>
       </c>
       <c r="E28" s="7" t="str">
-        <f>(E$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C28-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>-26 by 880</v>
       </c>
       <c r="F28" s="9" t="str">
-        <f>(F$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C28-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>24 by 880</v>
       </c>
       <c r="G28" s="9" t="str">
-        <f>(G$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C28-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>74 by 880</v>
       </c>
       <c r="H28" s="9" t="str">
-        <f>(H$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C28-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>124 by 880</v>
       </c>
       <c r="I28" s="7" t="str">
-        <f>(I$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C28-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>174 by 880</v>
       </c>
       <c r="J28" s="7" t="str">
-        <f>(J$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C28-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>224 by 880</v>
       </c>
       <c r="K28" s="7" t="str">
-        <f>(K$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C28-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>274 by 880</v>
       </c>
       <c r="L28" s="7" t="str">
-        <f>(L$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C28-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>324 by 880</v>
       </c>
       <c r="M28" s="7" t="str">
-        <f>(M$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C28-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>374 by 880</v>
       </c>
       <c r="N28" s="7" t="str">
-        <f>(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C28-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>424 by 880</v>
       </c>
       <c r="O28" s="7" t="str">
-        <f>(O$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C28-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>474 by 880</v>
       </c>
       <c r="P28" s="7" t="str">
-        <f>(P$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C28-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>524 by 880</v>
       </c>
       <c r="Q28" s="7" t="str">
-        <f>(Q$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C28-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>574 by 880</v>
       </c>
       <c r="R28" s="7" t="str">
-        <f>(R$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C28-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>624 by 880</v>
       </c>
       <c r="S28" s="7" t="str">
-        <f>(S$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C28-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>674 by 880</v>
       </c>
       <c r="T28" s="7" t="str">
-        <f>(T$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C28-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>724 by 880</v>
       </c>
       <c r="U28" s="7" t="str">
-        <f>(U$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C28-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>774 by 880</v>
       </c>
       <c r="V28" s="7" t="str">
-        <f>(V$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C28-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>824 by 880</v>
       </c>
       <c r="W28" s="7" t="str">
-        <f>(W$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C28-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>874 by 880</v>
       </c>
       <c r="X28" s="7" t="str">
-        <f>(X$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C28-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>924 by 880</v>
       </c>
       <c r="Y28" s="7" t="str">
-        <f>(Y$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C28-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>974 by 880</v>
       </c>
       <c r="Z28" s="9" t="str">
-        <f>(Z$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C28-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>1024 by 880</v>
       </c>
       <c r="AA28" s="9" t="str">
-        <f>(AA$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C28-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>1074 by 880</v>
       </c>
     </row>
@@ -2965,103 +2982,103 @@
         <v>1050</v>
       </c>
       <c r="C29" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1060</v>
       </c>
       <c r="D29" s="7" t="str">
-        <f>(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C29-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>-76 by 930</v>
       </c>
       <c r="E29" s="7" t="str">
-        <f>(E$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C29-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>-26 by 930</v>
       </c>
       <c r="F29" s="9" t="str">
-        <f>(F$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C29-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>24 by 930</v>
       </c>
       <c r="G29" s="9" t="str">
-        <f>(G$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C29-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>74 by 930</v>
       </c>
       <c r="H29" s="9" t="str">
-        <f>(H$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C29-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>124 by 930</v>
       </c>
       <c r="I29" s="7" t="str">
-        <f>(I$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C29-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>174 by 930</v>
       </c>
       <c r="J29" s="7" t="str">
-        <f>(J$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C29-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>224 by 930</v>
       </c>
       <c r="K29" s="7" t="str">
-        <f>(K$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C29-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>274 by 930</v>
       </c>
       <c r="L29" s="7" t="str">
-        <f>(L$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C29-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>324 by 930</v>
       </c>
       <c r="M29" s="7" t="str">
-        <f>(M$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C29-(90+20+20))</f>
+        <f t="shared" si="4"/>
         <v>374 by 930</v>
       </c>
       <c r="N29" s="7" t="str">
-        <f>(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C29-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>424 by 930</v>
       </c>
       <c r="O29" s="7" t="str">
-        <f>(O$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C29-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>474 by 930</v>
       </c>
       <c r="P29" s="7" t="str">
-        <f>(P$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C29-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>524 by 930</v>
       </c>
       <c r="Q29" s="7" t="str">
-        <f>(Q$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C29-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>574 by 930</v>
       </c>
       <c r="R29" s="7" t="str">
-        <f>(R$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C29-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>624 by 930</v>
       </c>
       <c r="S29" s="7" t="str">
-        <f>(S$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C29-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>674 by 930</v>
       </c>
       <c r="T29" s="7" t="str">
-        <f>(T$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C29-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>724 by 930</v>
       </c>
       <c r="U29" s="7" t="str">
-        <f>(U$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C29-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>774 by 930</v>
       </c>
       <c r="V29" s="7" t="str">
-        <f>(V$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C29-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>824 by 930</v>
       </c>
       <c r="W29" s="7" t="str">
-        <f>(W$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C29-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>874 by 930</v>
       </c>
       <c r="X29" s="7" t="str">
-        <f>(X$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C29-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>924 by 930</v>
       </c>
       <c r="Y29" s="7" t="str">
-        <f>(Y$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C29-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>974 by 930</v>
       </c>
       <c r="Z29" s="9" t="str">
-        <f>(Z$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C29-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>1024 by 930</v>
       </c>
       <c r="AA29" s="9" t="str">
-        <f>(AA$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C29-(90+20+20))</f>
+        <f t="shared" si="5"/>
         <v>1074 by 930</v>
       </c>
     </row>
@@ -3071,103 +3088,103 @@
         <v>1100</v>
       </c>
       <c r="C30" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1110</v>
       </c>
       <c r="D30" s="7" t="str">
-        <f>(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C30-(90+20+20))</f>
+        <f t="shared" ref="D30:M39" si="6">(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C30-(90+20+20))</f>
         <v>-76 by 980</v>
       </c>
       <c r="E30" s="7" t="str">
-        <f>(E$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C30-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>-26 by 980</v>
       </c>
       <c r="F30" s="9" t="str">
-        <f>(F$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C30-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>24 by 980</v>
       </c>
       <c r="G30" s="9" t="str">
-        <f>(G$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C30-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>74 by 980</v>
       </c>
       <c r="H30" s="9" t="str">
-        <f>(H$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C30-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>124 by 980</v>
       </c>
       <c r="I30" s="7" t="str">
-        <f>(I$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C30-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>174 by 980</v>
       </c>
       <c r="J30" s="7" t="str">
-        <f>(J$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C30-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>224 by 980</v>
       </c>
       <c r="K30" s="7" t="str">
-        <f>(K$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C30-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>274 by 980</v>
       </c>
       <c r="L30" s="7" t="str">
-        <f>(L$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C30-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>324 by 980</v>
       </c>
       <c r="M30" s="7" t="str">
-        <f>(M$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C30-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>374 by 980</v>
       </c>
       <c r="N30" s="7" t="str">
-        <f>(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C30-(90+20+20))</f>
+        <f t="shared" ref="N30:AA39" si="7">(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C30-(90+20+20))</f>
         <v>424 by 980</v>
       </c>
       <c r="O30" s="7" t="str">
-        <f>(O$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C30-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>474 by 980</v>
       </c>
       <c r="P30" s="7" t="str">
-        <f>(P$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C30-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>524 by 980</v>
       </c>
       <c r="Q30" s="7" t="str">
-        <f>(Q$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C30-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>574 by 980</v>
       </c>
       <c r="R30" s="7" t="str">
-        <f>(R$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C30-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>624 by 980</v>
       </c>
       <c r="S30" s="7" t="str">
-        <f>(S$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C30-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>674 by 980</v>
       </c>
       <c r="T30" s="7" t="str">
-        <f>(T$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C30-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>724 by 980</v>
       </c>
       <c r="U30" s="7" t="str">
-        <f>(U$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C30-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>774 by 980</v>
       </c>
       <c r="V30" s="7" t="str">
-        <f>(V$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C30-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>824 by 980</v>
       </c>
       <c r="W30" s="7" t="str">
-        <f>(W$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C30-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>874 by 980</v>
       </c>
       <c r="X30" s="7" t="str">
-        <f>(X$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C30-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>924 by 980</v>
       </c>
       <c r="Y30" s="7" t="str">
-        <f>(Y$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C30-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>974 by 980</v>
       </c>
       <c r="Z30" s="9" t="str">
-        <f>(Z$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C30-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>1024 by 980</v>
       </c>
       <c r="AA30" s="9" t="str">
-        <f>(AA$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C30-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>1074 by 980</v>
       </c>
     </row>
@@ -3177,103 +3194,103 @@
         <v>1150</v>
       </c>
       <c r="C31" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1160</v>
       </c>
       <c r="D31" s="7" t="str">
-        <f>(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C31-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>-76 by 1030</v>
       </c>
       <c r="E31" s="7" t="str">
-        <f>(E$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C31-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>-26 by 1030</v>
       </c>
       <c r="F31" s="9" t="str">
-        <f>(F$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C31-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>24 by 1030</v>
       </c>
       <c r="G31" s="9" t="str">
-        <f>(G$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C31-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>74 by 1030</v>
       </c>
       <c r="H31" s="9" t="str">
-        <f>(H$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C31-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>124 by 1030</v>
       </c>
       <c r="I31" s="9" t="str">
-        <f>(I$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C31-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>174 by 1030</v>
       </c>
       <c r="J31" s="9" t="str">
-        <f>(J$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C31-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>224 by 1030</v>
       </c>
       <c r="K31" s="9" t="str">
-        <f>(K$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C31-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>274 by 1030</v>
       </c>
       <c r="L31" s="9" t="str">
-        <f>(L$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C31-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>324 by 1030</v>
       </c>
       <c r="M31" s="9" t="str">
-        <f>(M$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C31-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>374 by 1030</v>
       </c>
       <c r="N31" s="9" t="str">
-        <f>(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C31-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>424 by 1030</v>
       </c>
       <c r="O31" s="9" t="str">
-        <f>(O$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C31-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>474 by 1030</v>
       </c>
       <c r="P31" s="9" t="str">
-        <f>(P$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C31-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>524 by 1030</v>
       </c>
       <c r="Q31" s="9" t="str">
-        <f>(Q$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C31-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>574 by 1030</v>
       </c>
       <c r="R31" s="9" t="str">
-        <f>(R$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C31-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>624 by 1030</v>
       </c>
       <c r="S31" s="9" t="str">
-        <f>(S$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C31-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>674 by 1030</v>
       </c>
       <c r="T31" s="9" t="str">
-        <f>(T$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C31-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>724 by 1030</v>
       </c>
       <c r="U31" s="9" t="str">
-        <f>(U$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C31-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>774 by 1030</v>
       </c>
       <c r="V31" s="9" t="str">
-        <f>(V$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C31-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>824 by 1030</v>
       </c>
       <c r="W31" s="9" t="str">
-        <f>(W$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C31-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>874 by 1030</v>
       </c>
       <c r="X31" s="9" t="str">
-        <f>(X$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C31-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>924 by 1030</v>
       </c>
       <c r="Y31" s="9" t="str">
-        <f>(Y$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C31-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>974 by 1030</v>
       </c>
       <c r="Z31" s="9" t="str">
-        <f>(Z$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C31-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>1024 by 1030</v>
       </c>
       <c r="AA31" s="9" t="str">
-        <f>(AA$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C31-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>1074 by 1030</v>
       </c>
     </row>
@@ -3283,103 +3300,103 @@
         <v>1200</v>
       </c>
       <c r="C32" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1210</v>
       </c>
       <c r="D32" s="7" t="str">
-        <f>(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C32-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>-76 by 1080</v>
       </c>
       <c r="E32" s="7" t="str">
-        <f>(E$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C32-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>-26 by 1080</v>
       </c>
       <c r="F32" s="9" t="str">
-        <f>(F$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C32-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>24 by 1080</v>
       </c>
       <c r="G32" s="9" t="str">
-        <f>(G$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C32-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>74 by 1080</v>
       </c>
       <c r="H32" s="9" t="str">
-        <f>(H$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C32-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>124 by 1080</v>
       </c>
       <c r="I32" s="9" t="str">
-        <f>(I$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C32-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>174 by 1080</v>
       </c>
       <c r="J32" s="9" t="str">
-        <f>(J$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C32-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>224 by 1080</v>
       </c>
       <c r="K32" s="9" t="str">
-        <f>(K$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C32-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>274 by 1080</v>
       </c>
       <c r="L32" s="9" t="str">
-        <f>(L$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C32-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>324 by 1080</v>
       </c>
       <c r="M32" s="9" t="str">
-        <f>(M$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C32-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>374 by 1080</v>
       </c>
       <c r="N32" s="9" t="str">
-        <f>(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C32-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>424 by 1080</v>
       </c>
       <c r="O32" s="9" t="str">
-        <f>(O$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C32-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>474 by 1080</v>
       </c>
       <c r="P32" s="9" t="str">
-        <f>(P$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C32-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>524 by 1080</v>
       </c>
       <c r="Q32" s="9" t="str">
-        <f>(Q$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C32-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>574 by 1080</v>
       </c>
       <c r="R32" s="9" t="str">
-        <f>(R$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C32-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>624 by 1080</v>
       </c>
       <c r="S32" s="9" t="str">
-        <f>(S$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C32-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>674 by 1080</v>
       </c>
       <c r="T32" s="9" t="str">
-        <f>(T$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C32-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>724 by 1080</v>
       </c>
       <c r="U32" s="9" t="str">
-        <f>(U$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C32-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>774 by 1080</v>
       </c>
       <c r="V32" s="9" t="str">
-        <f>(V$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C32-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>824 by 1080</v>
       </c>
       <c r="W32" s="9" t="str">
-        <f>(W$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C32-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>874 by 1080</v>
       </c>
       <c r="X32" s="9" t="str">
-        <f>(X$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C32-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>924 by 1080</v>
       </c>
       <c r="Y32" s="9" t="str">
-        <f>(Y$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C32-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>974 by 1080</v>
       </c>
       <c r="Z32" s="9" t="str">
-        <f>(Z$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C32-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>1024 by 1080</v>
       </c>
       <c r="AA32" s="9" t="str">
-        <f>(AA$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C32-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>1074 by 1080</v>
       </c>
     </row>
@@ -3389,103 +3406,103 @@
         <v>1250</v>
       </c>
       <c r="C33" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1260</v>
       </c>
       <c r="D33" s="7" t="str">
-        <f>(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C33-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>-76 by 1130</v>
       </c>
       <c r="E33" s="7" t="str">
-        <f>(E$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C33-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>-26 by 1130</v>
       </c>
       <c r="F33" s="9" t="str">
-        <f>(F$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C33-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>24 by 1130</v>
       </c>
       <c r="G33" s="9" t="str">
-        <f>(G$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C33-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>74 by 1130</v>
       </c>
       <c r="H33" s="9" t="str">
-        <f>(H$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C33-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>124 by 1130</v>
       </c>
       <c r="I33" s="9" t="str">
-        <f>(I$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C33-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>174 by 1130</v>
       </c>
       <c r="J33" s="9" t="str">
-        <f>(J$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C33-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>224 by 1130</v>
       </c>
       <c r="K33" s="9" t="str">
-        <f>(K$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C33-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>274 by 1130</v>
       </c>
       <c r="L33" s="9" t="str">
-        <f>(L$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C33-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>324 by 1130</v>
       </c>
       <c r="M33" s="9" t="str">
-        <f>(M$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C33-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>374 by 1130</v>
       </c>
       <c r="N33" s="9" t="str">
-        <f>(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C33-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>424 by 1130</v>
       </c>
       <c r="O33" s="9" t="str">
-        <f>(O$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C33-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>474 by 1130</v>
       </c>
       <c r="P33" s="9" t="str">
-        <f>(P$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C33-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>524 by 1130</v>
       </c>
       <c r="Q33" s="9" t="str">
-        <f>(Q$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C33-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>574 by 1130</v>
       </c>
       <c r="R33" s="9" t="str">
-        <f>(R$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C33-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>624 by 1130</v>
       </c>
       <c r="S33" s="9" t="str">
-        <f>(S$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C33-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>674 by 1130</v>
       </c>
       <c r="T33" s="9" t="str">
-        <f>(T$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C33-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>724 by 1130</v>
       </c>
       <c r="U33" s="9" t="str">
-        <f>(U$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C33-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>774 by 1130</v>
       </c>
       <c r="V33" s="9" t="str">
-        <f>(V$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C33-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>824 by 1130</v>
       </c>
       <c r="W33" s="9" t="str">
-        <f>(W$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C33-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>874 by 1130</v>
       </c>
       <c r="X33" s="9" t="str">
-        <f>(X$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C33-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>924 by 1130</v>
       </c>
       <c r="Y33" s="9" t="str">
-        <f>(Y$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C33-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>974 by 1130</v>
       </c>
       <c r="Z33" s="9" t="str">
-        <f>(Z$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C33-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>1024 by 1130</v>
       </c>
       <c r="AA33" s="9" t="str">
-        <f>(AA$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C33-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>1074 by 1130</v>
       </c>
     </row>
@@ -3495,103 +3512,103 @@
         <v>1300</v>
       </c>
       <c r="C34" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1310</v>
       </c>
       <c r="D34" s="7" t="str">
-        <f>(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C34-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>-76 by 1180</v>
       </c>
       <c r="E34" s="7" t="str">
-        <f>(E$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C34-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>-26 by 1180</v>
       </c>
       <c r="F34" s="9" t="str">
-        <f>(F$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C34-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>24 by 1180</v>
       </c>
       <c r="G34" s="9" t="str">
-        <f>(G$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C34-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>74 by 1180</v>
       </c>
       <c r="H34" s="9" t="str">
-        <f>(H$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C34-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>124 by 1180</v>
       </c>
       <c r="I34" s="9" t="str">
-        <f>(I$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C34-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>174 by 1180</v>
       </c>
       <c r="J34" s="9" t="str">
-        <f>(J$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C34-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>224 by 1180</v>
       </c>
       <c r="K34" s="9" t="str">
-        <f>(K$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C34-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>274 by 1180</v>
       </c>
       <c r="L34" s="9" t="str">
-        <f>(L$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C34-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>324 by 1180</v>
       </c>
       <c r="M34" s="9" t="str">
-        <f>(M$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C34-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>374 by 1180</v>
       </c>
       <c r="N34" s="9" t="str">
-        <f>(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C34-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>424 by 1180</v>
       </c>
       <c r="O34" s="9" t="str">
-        <f>(O$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C34-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>474 by 1180</v>
       </c>
       <c r="P34" s="9" t="str">
-        <f>(P$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C34-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>524 by 1180</v>
       </c>
       <c r="Q34" s="9" t="str">
-        <f>(Q$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C34-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>574 by 1180</v>
       </c>
       <c r="R34" s="9" t="str">
-        <f>(R$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C34-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>624 by 1180</v>
       </c>
       <c r="S34" s="9" t="str">
-        <f>(S$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C34-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>674 by 1180</v>
       </c>
       <c r="T34" s="9" t="str">
-        <f>(T$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C34-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>724 by 1180</v>
       </c>
       <c r="U34" s="9" t="str">
-        <f>(U$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C34-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>774 by 1180</v>
       </c>
       <c r="V34" s="9" t="str">
-        <f>(V$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C34-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>824 by 1180</v>
       </c>
       <c r="W34" s="9" t="str">
-        <f>(W$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C34-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>874 by 1180</v>
       </c>
       <c r="X34" s="9" t="str">
-        <f>(X$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C34-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>924 by 1180</v>
       </c>
       <c r="Y34" s="9" t="str">
-        <f>(Y$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C34-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>974 by 1180</v>
       </c>
       <c r="Z34" s="9" t="str">
-        <f>(Z$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C34-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>1024 by 1180</v>
       </c>
       <c r="AA34" s="9" t="str">
-        <f>(AA$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C34-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>1074 by 1180</v>
       </c>
     </row>
@@ -3601,103 +3618,103 @@
         <v>1350</v>
       </c>
       <c r="C35" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1360</v>
       </c>
       <c r="D35" s="7" t="str">
-        <f>(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C35-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>-76 by 1230</v>
       </c>
       <c r="E35" s="7" t="str">
-        <f>(E$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C35-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>-26 by 1230</v>
       </c>
       <c r="F35" s="9" t="str">
-        <f>(F$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C35-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>24 by 1230</v>
       </c>
       <c r="G35" s="9" t="str">
-        <f>(G$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C35-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>74 by 1230</v>
       </c>
       <c r="H35" s="9" t="str">
-        <f>(H$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C35-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>124 by 1230</v>
       </c>
       <c r="I35" s="9" t="str">
-        <f>(I$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C35-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>174 by 1230</v>
       </c>
       <c r="J35" s="9" t="str">
-        <f>(J$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C35-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>224 by 1230</v>
       </c>
       <c r="K35" s="9" t="str">
-        <f>(K$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C35-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>274 by 1230</v>
       </c>
       <c r="L35" s="9" t="str">
-        <f>(L$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C35-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>324 by 1230</v>
       </c>
       <c r="M35" s="9" t="str">
-        <f>(M$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C35-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>374 by 1230</v>
       </c>
       <c r="N35" s="9" t="str">
-        <f>(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C35-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>424 by 1230</v>
       </c>
       <c r="O35" s="9" t="str">
-        <f>(O$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C35-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>474 by 1230</v>
       </c>
       <c r="P35" s="9" t="str">
-        <f>(P$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C35-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>524 by 1230</v>
       </c>
       <c r="Q35" s="9" t="str">
-        <f>(Q$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C35-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>574 by 1230</v>
       </c>
       <c r="R35" s="9" t="str">
-        <f>(R$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C35-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>624 by 1230</v>
       </c>
       <c r="S35" s="9" t="str">
-        <f>(S$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C35-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>674 by 1230</v>
       </c>
       <c r="T35" s="9" t="str">
-        <f>(T$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C35-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>724 by 1230</v>
       </c>
       <c r="U35" s="9" t="str">
-        <f>(U$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C35-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>774 by 1230</v>
       </c>
       <c r="V35" s="9" t="str">
-        <f>(V$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C35-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>824 by 1230</v>
       </c>
       <c r="W35" s="9" t="str">
-        <f>(W$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C35-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>874 by 1230</v>
       </c>
       <c r="X35" s="9" t="str">
-        <f>(X$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C35-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>924 by 1230</v>
       </c>
       <c r="Y35" s="9" t="str">
-        <f>(Y$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C35-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>974 by 1230</v>
       </c>
       <c r="Z35" s="9" t="str">
-        <f>(Z$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C35-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>1024 by 1230</v>
       </c>
       <c r="AA35" s="9" t="str">
-        <f>(AA$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C35-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>1074 by 1230</v>
       </c>
     </row>
@@ -3707,103 +3724,103 @@
         <v>1400</v>
       </c>
       <c r="C36" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1410</v>
       </c>
       <c r="D36" s="7" t="str">
-        <f>(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C36-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>-76 by 1280</v>
       </c>
       <c r="E36" s="7" t="str">
-        <f>(E$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C36-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>-26 by 1280</v>
       </c>
       <c r="F36" s="9" t="str">
-        <f>(F$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C36-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>24 by 1280</v>
       </c>
       <c r="G36" s="9" t="str">
-        <f>(G$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C36-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>74 by 1280</v>
       </c>
       <c r="H36" s="9" t="str">
-        <f>(H$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C36-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>124 by 1280</v>
       </c>
       <c r="I36" s="9" t="str">
-        <f>(I$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C36-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>174 by 1280</v>
       </c>
       <c r="J36" s="9" t="str">
-        <f>(J$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C36-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>224 by 1280</v>
       </c>
       <c r="K36" s="9" t="str">
-        <f>(K$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C36-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>274 by 1280</v>
       </c>
       <c r="L36" s="9" t="str">
-        <f>(L$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C36-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>324 by 1280</v>
       </c>
       <c r="M36" s="9" t="str">
-        <f>(M$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C36-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>374 by 1280</v>
       </c>
       <c r="N36" s="9" t="str">
-        <f>(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C36-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>424 by 1280</v>
       </c>
       <c r="O36" s="9" t="str">
-        <f>(O$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C36-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>474 by 1280</v>
       </c>
       <c r="P36" s="9" t="str">
-        <f>(P$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C36-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>524 by 1280</v>
       </c>
       <c r="Q36" s="9" t="str">
-        <f>(Q$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C36-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>574 by 1280</v>
       </c>
       <c r="R36" s="9" t="str">
-        <f>(R$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C36-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>624 by 1280</v>
       </c>
       <c r="S36" s="9" t="str">
-        <f>(S$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C36-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>674 by 1280</v>
       </c>
       <c r="T36" s="9" t="str">
-        <f>(T$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C36-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>724 by 1280</v>
       </c>
       <c r="U36" s="9" t="str">
-        <f>(U$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C36-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>774 by 1280</v>
       </c>
       <c r="V36" s="9" t="str">
-        <f>(V$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C36-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>824 by 1280</v>
       </c>
       <c r="W36" s="9" t="str">
-        <f>(W$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C36-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>874 by 1280</v>
       </c>
       <c r="X36" s="9" t="str">
-        <f>(X$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C36-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>924 by 1280</v>
       </c>
       <c r="Y36" s="9" t="str">
-        <f>(Y$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C36-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>974 by 1280</v>
       </c>
       <c r="Z36" s="9" t="str">
-        <f>(Z$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C36-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>1024 by 1280</v>
       </c>
       <c r="AA36" s="9" t="str">
-        <f>(AA$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C36-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>1074 by 1280</v>
       </c>
     </row>
@@ -3813,103 +3830,103 @@
         <v>1450</v>
       </c>
       <c r="C37" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1460</v>
       </c>
       <c r="D37" s="7" t="str">
-        <f>(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C37-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>-76 by 1330</v>
       </c>
       <c r="E37" s="7" t="str">
-        <f>(E$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C37-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>-26 by 1330</v>
       </c>
       <c r="F37" s="9" t="str">
-        <f>(F$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C37-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>24 by 1330</v>
       </c>
       <c r="G37" s="9" t="str">
-        <f>(G$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C37-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>74 by 1330</v>
       </c>
       <c r="H37" s="9" t="str">
-        <f>(H$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C37-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>124 by 1330</v>
       </c>
       <c r="I37" s="9" t="str">
-        <f>(I$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C37-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>174 by 1330</v>
       </c>
       <c r="J37" s="9" t="str">
-        <f>(J$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C37-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>224 by 1330</v>
       </c>
       <c r="K37" s="9" t="str">
-        <f>(K$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C37-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>274 by 1330</v>
       </c>
       <c r="L37" s="9" t="str">
-        <f>(L$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C37-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>324 by 1330</v>
       </c>
       <c r="M37" s="9" t="str">
-        <f>(M$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C37-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>374 by 1330</v>
       </c>
       <c r="N37" s="9" t="str">
-        <f>(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C37-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>424 by 1330</v>
       </c>
       <c r="O37" s="9" t="str">
-        <f>(O$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C37-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>474 by 1330</v>
       </c>
       <c r="P37" s="9" t="str">
-        <f>(P$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C37-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>524 by 1330</v>
       </c>
       <c r="Q37" s="9" t="str">
-        <f>(Q$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C37-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>574 by 1330</v>
       </c>
       <c r="R37" s="9" t="str">
-        <f>(R$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C37-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>624 by 1330</v>
       </c>
       <c r="S37" s="9" t="str">
-        <f>(S$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C37-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>674 by 1330</v>
       </c>
       <c r="T37" s="9" t="str">
-        <f>(T$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C37-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>724 by 1330</v>
       </c>
       <c r="U37" s="9" t="str">
-        <f>(U$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C37-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>774 by 1330</v>
       </c>
       <c r="V37" s="9" t="str">
-        <f>(V$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C37-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>824 by 1330</v>
       </c>
       <c r="W37" s="9" t="str">
-        <f>(W$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C37-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>874 by 1330</v>
       </c>
       <c r="X37" s="9" t="str">
-        <f>(X$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C37-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>924 by 1330</v>
       </c>
       <c r="Y37" s="9" t="str">
-        <f>(Y$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C37-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>974 by 1330</v>
       </c>
       <c r="Z37" s="9" t="str">
-        <f>(Z$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C37-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>1024 by 1330</v>
       </c>
       <c r="AA37" s="9" t="str">
-        <f>(AA$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C37-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>1074 by 1330</v>
       </c>
     </row>
@@ -3919,103 +3936,103 @@
         <v>1500</v>
       </c>
       <c r="C38" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1510</v>
       </c>
       <c r="D38" s="7" t="str">
-        <f>(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C38-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>-76 by 1380</v>
       </c>
       <c r="E38" s="7" t="str">
-        <f>(E$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C38-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>-26 by 1380</v>
       </c>
       <c r="F38" s="9" t="str">
-        <f>(F$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C38-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>24 by 1380</v>
       </c>
       <c r="G38" s="9" t="str">
-        <f>(G$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C38-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>74 by 1380</v>
       </c>
       <c r="H38" s="9" t="str">
-        <f>(H$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C38-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>124 by 1380</v>
       </c>
       <c r="I38" s="9" t="str">
-        <f>(I$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C38-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>174 by 1380</v>
       </c>
       <c r="J38" s="9" t="str">
-        <f>(J$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C38-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>224 by 1380</v>
       </c>
       <c r="K38" s="9" t="str">
-        <f>(K$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C38-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>274 by 1380</v>
       </c>
       <c r="L38" s="9" t="str">
-        <f>(L$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C38-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>324 by 1380</v>
       </c>
       <c r="M38" s="9" t="str">
-        <f>(M$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C38-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>374 by 1380</v>
       </c>
       <c r="N38" s="9" t="str">
-        <f>(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C38-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>424 by 1380</v>
       </c>
       <c r="O38" s="9" t="str">
-        <f>(O$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C38-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>474 by 1380</v>
       </c>
       <c r="P38" s="9" t="str">
-        <f>(P$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C38-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>524 by 1380</v>
       </c>
       <c r="Q38" s="9" t="str">
-        <f>(Q$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C38-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>574 by 1380</v>
       </c>
       <c r="R38" s="9" t="str">
-        <f>(R$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C38-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>624 by 1380</v>
       </c>
       <c r="S38" s="9" t="str">
-        <f>(S$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C38-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>674 by 1380</v>
       </c>
       <c r="T38" s="9" t="str">
-        <f>(T$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C38-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>724 by 1380</v>
       </c>
       <c r="U38" s="9" t="str">
-        <f>(U$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C38-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>774 by 1380</v>
       </c>
       <c r="V38" s="9" t="str">
-        <f>(V$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C38-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>824 by 1380</v>
       </c>
       <c r="W38" s="9" t="str">
-        <f>(W$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C38-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>874 by 1380</v>
       </c>
       <c r="X38" s="9" t="str">
-        <f>(X$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C38-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>924 by 1380</v>
       </c>
       <c r="Y38" s="9" t="str">
-        <f>(Y$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C38-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>974 by 1380</v>
       </c>
       <c r="Z38" s="9" t="str">
-        <f>(Z$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C38-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>1024 by 1380</v>
       </c>
       <c r="AA38" s="9" t="str">
-        <f>(AA$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C38-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>1074 by 1380</v>
       </c>
     </row>
@@ -4025,103 +4042,103 @@
         <v>1550</v>
       </c>
       <c r="C39" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1560</v>
       </c>
       <c r="D39" s="7" t="str">
-        <f>(D$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C39-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>-76 by 1430</v>
       </c>
       <c r="E39" s="7" t="str">
-        <f>(E$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C39-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>-26 by 1430</v>
       </c>
       <c r="F39" s="9" t="str">
-        <f>(F$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C39-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>24 by 1430</v>
       </c>
       <c r="G39" s="9" t="str">
-        <f>(G$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C39-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>74 by 1430</v>
       </c>
       <c r="H39" s="9" t="str">
-        <f>(H$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C39-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>124 by 1430</v>
       </c>
       <c r="I39" s="9" t="str">
-        <f>(I$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C39-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>174 by 1430</v>
       </c>
       <c r="J39" s="9" t="str">
-        <f>(J$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C39-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>224 by 1430</v>
       </c>
       <c r="K39" s="9" t="str">
-        <f>(K$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C39-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>274 by 1430</v>
       </c>
       <c r="L39" s="9" t="str">
-        <f>(L$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C39-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>324 by 1430</v>
       </c>
       <c r="M39" s="9" t="str">
-        <f>(M$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C39-(90+20+20))</f>
+        <f t="shared" si="6"/>
         <v>374 by 1430</v>
       </c>
       <c r="N39" s="9" t="str">
-        <f>(N$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C39-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>424 by 1430</v>
       </c>
       <c r="O39" s="9" t="str">
-        <f>(O$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C39-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>474 by 1430</v>
       </c>
       <c r="P39" s="9" t="str">
-        <f>(P$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C39-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>524 by 1430</v>
       </c>
       <c r="Q39" s="9" t="str">
-        <f>(Q$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C39-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>574 by 1430</v>
       </c>
       <c r="R39" s="9" t="str">
-        <f>(R$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C39-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>624 by 1430</v>
       </c>
       <c r="S39" s="9" t="str">
-        <f>(S$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C39-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>674 by 1430</v>
       </c>
       <c r="T39" s="9" t="str">
-        <f>(T$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C39-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>724 by 1430</v>
       </c>
       <c r="U39" s="9" t="str">
-        <f>(U$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C39-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>774 by 1430</v>
       </c>
       <c r="V39" s="9" t="str">
-        <f>(V$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C39-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>824 by 1430</v>
       </c>
       <c r="W39" s="9" t="str">
-        <f>(W$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C39-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>874 by 1430</v>
       </c>
       <c r="X39" s="9" t="str">
-        <f>(X$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C39-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>924 by 1430</v>
       </c>
       <c r="Y39" s="9" t="str">
-        <f>(Y$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C39-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>974 by 1430</v>
       </c>
       <c r="Z39" s="9" t="str">
-        <f>(Z$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C39-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>1024 by 1430</v>
       </c>
       <c r="AA39" s="9" t="str">
-        <f>(AA$9-(90+23+23)-SideOffset)&amp;" by "&amp;($C39-(90+20+20))</f>
+        <f t="shared" si="7"/>
         <v>1074 by 1430</v>
       </c>
     </row>

--- a/Working Area.xlsx
+++ b/Working Area.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A405B58-7A21-43F9-9356-1435300D21DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A949FEA-9B55-4FD4-8464-9100861A4BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{59969C4D-6370-4C6D-B336-0A16B9933AEB}"/>
   </bookViews>
@@ -106,10 +106,10 @@
     </r>
   </si>
   <si>
-    <t>Z-Axis Travel = 75mm</t>
+    <t>Root 4 Lite CNC Working Area with standard SFU1204 Ballscrews</t>
   </si>
   <si>
-    <t>Root 4 Lite CNC Working Area with standard SFU1204 Ballscrews</t>
+    <t>Z-Axis Travel = 60mm</t>
   </si>
 </sst>
 </file>
@@ -304,6 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -322,7 +323,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Good" xfId="3" builtinId="26"/>
@@ -656,7 +656,7 @@
   <dimension ref="A1:AA40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,62 +668,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
+      <c r="B1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="B4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
@@ -753,32 +753,32 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
@@ -961,7 +961,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="7">
@@ -1069,7 +1069,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="7">
         <v>150</v>
       </c>
@@ -1175,7 +1175,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="7">
         <v>200</v>
       </c>
@@ -1281,7 +1281,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="7">
         <v>250</v>
       </c>
@@ -1387,7 +1387,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="7">
         <v>300</v>
       </c>
@@ -1493,7 +1493,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="7">
         <v>350</v>
       </c>
@@ -1599,7 +1599,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="8">
         <v>400</v>
       </c>
@@ -1631,7 +1631,7 @@
         <f t="shared" si="1"/>
         <v>174 by 280</v>
       </c>
-      <c r="J16" s="16" t="str">
+      <c r="J16" s="10" t="str">
         <f t="shared" si="1"/>
         <v>224 by 280</v>
       </c>
@@ -1705,7 +1705,7 @@
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="7">
         <v>450</v>
       </c>
@@ -1811,7 +1811,7 @@
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="7">
         <v>500</v>
       </c>
@@ -1917,7 +1917,7 @@
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="7">
         <v>550</v>
       </c>
@@ -2023,7 +2023,7 @@
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="7">
         <v>600</v>
       </c>
@@ -2129,7 +2129,7 @@
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="7">
         <v>650</v>
       </c>
@@ -2235,7 +2235,7 @@
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="7">
         <v>700</v>
       </c>
@@ -2341,7 +2341,7 @@
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="7">
         <v>750</v>
       </c>
@@ -2447,7 +2447,7 @@
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="7">
         <v>800</v>
       </c>
@@ -2553,7 +2553,7 @@
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="7">
         <v>850</v>
       </c>
@@ -2659,7 +2659,7 @@
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="7">
         <v>900</v>
       </c>
@@ -2765,7 +2765,7 @@
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="7">
         <v>950</v>
       </c>
@@ -2871,7 +2871,7 @@
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="7">
         <v>1000</v>
       </c>
@@ -2977,7 +2977,7 @@
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="7">
         <v>1050</v>
       </c>
@@ -3083,7 +3083,7 @@
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="7">
         <v>1100</v>
       </c>
@@ -3189,7 +3189,7 @@
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="7">
         <v>1150</v>
       </c>
@@ -3295,7 +3295,7 @@
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="7">
         <v>1200</v>
       </c>
@@ -3401,7 +3401,7 @@
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="7">
         <v>1250</v>
       </c>
@@ -3507,7 +3507,7 @@
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="7">
         <v>1300</v>
       </c>
@@ -3613,7 +3613,7 @@
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="7">
         <v>1350</v>
       </c>
@@ -3719,7 +3719,7 @@
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="7">
         <v>1400</v>
       </c>
@@ -3825,7 +3825,7 @@
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="7">
         <v>1450</v>
       </c>
@@ -3931,7 +3931,7 @@
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="7">
         <v>1500</v>
       </c>
@@ -4037,7 +4037,7 @@
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="7">
         <v>1550</v>
       </c>
@@ -4143,16 +4143,16 @@
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="T40" s="10" t="s">
+      <c r="T40" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="10"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
